--- a/biology/Médecine/Xavier_Galezowski/Xavier_Galezowski.xlsx
+++ b/biology/Médecine/Xavier_Galezowski/Xavier_Galezowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ksawery Gałęzowski, né à Lipowiec (Pologne) le 3 janvier 1832, mort à Paris le 22 mars 1907, est un  médecin et ophtalmologue polonais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ksawery Gałęzowski, né à Lipowiec (Pologne) le 3 janvier 1832, mort à Paris le 22 mars 1907, est un  médecin et ophtalmologue polonais.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il commence des études supérieures de médecine à Saint-Pétersbourg en Russie[2]. Il doit fuir sa terre natale lors de l'occupation de la Pologne par la Russie impériale et échapper à la répression de l'occupant russe. Il arrive à Paris avec son oncle médecin Seweryn Gałęzowski (1801-1878). Il poursuit ses études de médecine à Paris et se spécialise dans l'ophtalmologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence des études supérieures de médecine à Saint-Pétersbourg en Russie. Il doit fuir sa terre natale lors de l'occupation de la Pologne par la Russie impériale et échapper à la répression de l'occupant russe. Il arrive à Paris avec son oncle médecin Seweryn Gałęzowski (1801-1878). Il poursuit ses études de médecine à Paris et se spécialise dans l'ophtalmologie.
 Il devient professeur d'ophtalmologie et président du conseil d’administration de l’école polonaise de Paris.
-De 1859 à 1864, il travaille sous la direction du docteur Louis Auguste Desmarres dont la clinique est alors établie rue Hautefeuille[3].
+De 1859 à 1864, il travaille sous la direction du docteur Louis Auguste Desmarres dont la clinique est alors établie rue Hautefeuille.
 En 1865, il obtient le doctorat de médecine avec sa thèse sur la maladie cérébrale et le nerf optique.
 En 1867, il fonde sa clinique privée d'ophtalmologie.
-En 1872, il crée le Journal d'Ophtalmologie qui deviendra par la suite le Recueil d'Ophtalmologie[4].
+En 1872, il crée le Journal d'Ophtalmologie qui deviendra par la suite le Recueil d'Ophtalmologie.
 Il est décoré de la Légion d'honneur pour son travail durant la Guerre de 1870.
-En 1907, Ksawery Gałęzowski meurt à Paris, il repose dans la 11e division du Cimetière du Père-Lachaise[1].
+En 1907, Ksawery Gałęzowski meurt à Paris, il repose dans la 11e division du Cimetière du Père-Lachaise.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Œuvres et publication[5]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Observations cliniques sur les maladies des yeux, H. Plon, Paris, 1862, lire en ligne sur Gallica.
 Étude ophtalmoscopique sur les altérations du nerf optique et sur les maladies cérébrales dont elles dépendent, Éditions L. Leclerc, Paris, 1865, lire en ligne sur Gallica
